--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -91,7 +91,7 @@
     <t>Pth2r</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H2">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I2">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J2">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04568866666666668</v>
+        <v>0.2585373333333333</v>
       </c>
       <c r="N2">
-        <v>0.137066</v>
+        <v>0.775612</v>
       </c>
       <c r="O2">
-        <v>0.1061456623978453</v>
+        <v>0.2883652589930572</v>
       </c>
       <c r="P2">
-        <v>0.1061456623978453</v>
+        <v>0.2883652589930571</v>
       </c>
       <c r="Q2">
-        <v>0.008039910821111112</v>
+        <v>0.07431905566088889</v>
       </c>
       <c r="R2">
-        <v>0.07235919739000002</v>
+        <v>0.668871500948</v>
       </c>
       <c r="S2">
-        <v>0.007686619604123549</v>
+        <v>0.03261584252978202</v>
       </c>
       <c r="T2">
-        <v>0.007686619604123549</v>
+        <v>0.03261584252978202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H3">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I3">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J3">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.523343</v>
       </c>
       <c r="O3">
-        <v>0.4052835086474804</v>
+        <v>0.1945740134722046</v>
       </c>
       <c r="P3">
-        <v>0.4052835086474803</v>
+        <v>0.1945740134722046</v>
       </c>
       <c r="Q3">
-        <v>0.03069784664944444</v>
+        <v>0.05014666811077778</v>
       </c>
       <c r="R3">
-        <v>0.276280619845</v>
+        <v>0.451320012997</v>
       </c>
       <c r="S3">
-        <v>0.02934891631389863</v>
+        <v>0.02200748941102473</v>
       </c>
       <c r="T3">
-        <v>0.02934891631389864</v>
+        <v>0.02200748941102473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H4">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I4">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J4">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1536663333333333</v>
+        <v>0.032643</v>
       </c>
       <c r="N4">
-        <v>0.4609989999999999</v>
+        <v>0.097929</v>
       </c>
       <c r="O4">
-        <v>0.3570035181572693</v>
+        <v>0.03640908269589833</v>
       </c>
       <c r="P4">
-        <v>0.3570035181572692</v>
+        <v>0.03640908269589833</v>
       </c>
       <c r="Q4">
-        <v>0.02704092078722222</v>
+        <v>0.009383545899</v>
       </c>
       <c r="R4">
-        <v>0.243368287085</v>
+        <v>0.084451913091</v>
       </c>
       <c r="S4">
-        <v>0.0258526837500281</v>
+        <v>0.004118085902614998</v>
       </c>
       <c r="T4">
-        <v>0.0258526837500281</v>
+        <v>0.004118085902614999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H5">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I5">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J5">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05663100000000001</v>
+        <v>0.430934</v>
       </c>
       <c r="N5">
-        <v>0.169893</v>
+        <v>1.292802</v>
       </c>
       <c r="O5">
-        <v>0.1315673107974051</v>
+        <v>0.4806516448388399</v>
       </c>
       <c r="P5">
-        <v>0.1315673107974051</v>
+        <v>0.4806516448388399</v>
       </c>
       <c r="Q5">
-        <v>0.009965451455000001</v>
+        <v>0.1238761439953333</v>
       </c>
       <c r="R5">
-        <v>0.08968906309500001</v>
+        <v>1.114885295958</v>
       </c>
       <c r="S5">
-        <v>0.009527547782844483</v>
+        <v>0.05436458751822723</v>
       </c>
       <c r="T5">
-        <v>0.009527547782844484</v>
+        <v>0.05436458751822724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H6">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I6">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J6">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04568866666666668</v>
+        <v>0.2585373333333333</v>
       </c>
       <c r="N6">
-        <v>0.137066</v>
+        <v>0.775612</v>
       </c>
       <c r="O6">
-        <v>0.1061456623978453</v>
+        <v>0.2883652589930572</v>
       </c>
       <c r="P6">
-        <v>0.1061456623978453</v>
+        <v>0.2883652589930571</v>
       </c>
       <c r="Q6">
-        <v>0.1016997585637778</v>
+        <v>0.5754859202075555</v>
       </c>
       <c r="R6">
-        <v>0.915297827074</v>
+        <v>5.179373281867999</v>
       </c>
       <c r="S6">
-        <v>0.09723084935946238</v>
+        <v>0.2525591584107574</v>
       </c>
       <c r="T6">
-        <v>0.09723084935946238</v>
+        <v>0.2525591584107574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H7">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I7">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J7">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.523343</v>
       </c>
       <c r="O7">
-        <v>0.4052835086474804</v>
+        <v>0.1945740134722046</v>
       </c>
       <c r="P7">
-        <v>0.4052835086474803</v>
+        <v>0.1945740134722046</v>
       </c>
       <c r="Q7">
-        <v>0.388308236514111</v>
+        <v>0.3883082365141111</v>
       </c>
       <c r="R7">
-        <v>3.494774128626999</v>
+        <v>3.494774128627</v>
       </c>
       <c r="S7">
-        <v>0.3712451256790824</v>
+        <v>0.1704139023637605</v>
       </c>
       <c r="T7">
-        <v>0.3712451256790824</v>
+        <v>0.1704139023637606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H8">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I8">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J8">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1536663333333333</v>
+        <v>0.032643</v>
       </c>
       <c r="N8">
-        <v>0.4609989999999999</v>
+        <v>0.097929</v>
       </c>
       <c r="O8">
-        <v>0.3570035181572693</v>
+        <v>0.03640908269589833</v>
       </c>
       <c r="P8">
-        <v>0.3570035181572692</v>
+        <v>0.03640908269589833</v>
       </c>
       <c r="Q8">
-        <v>0.3420504501345554</v>
+        <v>0.072661022109</v>
       </c>
       <c r="R8">
-        <v>3.078454051210999</v>
+        <v>0.653949198981</v>
       </c>
       <c r="S8">
-        <v>0.3270200073239373</v>
+        <v>0.03188819387014005</v>
       </c>
       <c r="T8">
-        <v>0.3270200073239373</v>
+        <v>0.03188819387014005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H9">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I9">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J9">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05663100000000001</v>
+        <v>0.430934</v>
       </c>
       <c r="N9">
-        <v>0.169893</v>
+        <v>1.292802</v>
       </c>
       <c r="O9">
-        <v>0.1315673107974051</v>
+        <v>0.4806516448388399</v>
       </c>
       <c r="P9">
-        <v>0.1315673107974051</v>
+        <v>0.4806516448388399</v>
       </c>
       <c r="Q9">
-        <v>0.126056622953</v>
+        <v>0.9592287749753332</v>
       </c>
       <c r="R9">
-        <v>1.134509606577</v>
+        <v>8.633058974777999</v>
       </c>
       <c r="S9">
-        <v>0.1205174200037</v>
+        <v>0.4209694861757477</v>
       </c>
       <c r="T9">
-        <v>0.1205174200037</v>
+        <v>0.4209694861757478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>0.084352</v>
       </c>
       <c r="I10">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J10">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04568866666666668</v>
+        <v>0.2585373333333333</v>
       </c>
       <c r="N10">
-        <v>0.137066</v>
+        <v>0.775612</v>
       </c>
       <c r="O10">
-        <v>0.1061456623978453</v>
+        <v>0.2883652589930572</v>
       </c>
       <c r="P10">
-        <v>0.1061456623978453</v>
+        <v>0.2883652589930571</v>
       </c>
       <c r="Q10">
-        <v>0.001284643470222222</v>
+        <v>0.007269380380444444</v>
       </c>
       <c r="R10">
-        <v>0.011561791232</v>
+        <v>0.065424423424</v>
       </c>
       <c r="S10">
-        <v>0.001228193434259359</v>
+        <v>0.003190258052517713</v>
       </c>
       <c r="T10">
-        <v>0.001228193434259359</v>
+        <v>0.003190258052517713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.084352</v>
       </c>
       <c r="I11">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J11">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,10 +1119,10 @@
         <v>0.523343</v>
       </c>
       <c r="O11">
-        <v>0.4052835086474804</v>
+        <v>0.1945740134722046</v>
       </c>
       <c r="P11">
-        <v>0.4052835086474803</v>
+        <v>0.1945740134722046</v>
       </c>
       <c r="Q11">
         <v>0.004905003192888889</v>
@@ -1131,10 +1131,10 @@
         <v>0.044145028736</v>
       </c>
       <c r="S11">
-        <v>0.004689466654499261</v>
+        <v>0.002152621697419299</v>
       </c>
       <c r="T11">
-        <v>0.00468946665449926</v>
+        <v>0.0021526216974193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,40 +1163,40 @@
         <v>0.084352</v>
       </c>
       <c r="I12">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J12">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1536663333333333</v>
+        <v>0.032643</v>
       </c>
       <c r="N12">
-        <v>0.4609989999999999</v>
+        <v>0.097929</v>
       </c>
       <c r="O12">
-        <v>0.3570035181572693</v>
+        <v>0.03640908269589833</v>
       </c>
       <c r="P12">
-        <v>0.3570035181572692</v>
+        <v>0.03640908269589833</v>
       </c>
       <c r="Q12">
-        <v>0.004320687516444444</v>
+        <v>0.0009178341119999998</v>
       </c>
       <c r="R12">
-        <v>0.03888618764799999</v>
+        <v>0.008260507008</v>
       </c>
       <c r="S12">
-        <v>0.004130827083303884</v>
+        <v>0.0004028029231432819</v>
       </c>
       <c r="T12">
-        <v>0.004130827083303883</v>
+        <v>0.000402802923143282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,40 +1225,40 @@
         <v>0.084352</v>
       </c>
       <c r="I13">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J13">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05663100000000001</v>
+        <v>0.430934</v>
       </c>
       <c r="N13">
-        <v>0.169893</v>
+        <v>1.292802</v>
       </c>
       <c r="O13">
-        <v>0.1315673107974051</v>
+        <v>0.4806516448388399</v>
       </c>
       <c r="P13">
-        <v>0.1315673107974051</v>
+        <v>0.4806516448388399</v>
       </c>
       <c r="Q13">
-        <v>0.001592312704</v>
+        <v>0.01211671492266667</v>
       </c>
       <c r="R13">
-        <v>0.014330814336</v>
+        <v>0.109050434304</v>
       </c>
       <c r="S13">
-        <v>0.001522343010860646</v>
+        <v>0.005317571144864965</v>
       </c>
       <c r="T13">
-        <v>0.001522343010860646</v>
+        <v>0.005317571144864966</v>
       </c>
     </row>
   </sheetData>
